--- a/tablas_auxiliares.xlsx
+++ b/tablas_auxiliares.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sik20\OneDrive\Documentos\Github\clasificacion-sectorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127FB85F-4523-4977-9AFA-E99F2714EF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCCCD10-CEF8-4AAC-87B4-56F06DC3B218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D2B0DF72-1BA2-4694-8460-4239D282F198}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{D2B0DF72-1BA2-4694-8460-4239D282F198}"/>
   </bookViews>
   <sheets>
     <sheet name="var.relat.esp" sheetId="2" r:id="rId1"/>
     <sheet name="pca.corr" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Salud y educación</t>
   </si>
@@ -143,6 +144,27 @@
   </si>
   <si>
     <t>Serv. Soc. y Admin. Pub.</t>
+  </si>
+  <si>
+    <t>Caracterizacion</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Islas del Ibicuy</t>
+  </si>
+  <si>
+    <t>La Paz</t>
+  </si>
+  <si>
+    <t>San Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alta esp. Rel. En </t>
+  </si>
+  <si>
+    <t>Baja esp. Rel en</t>
   </si>
 </sst>
 </file>
@@ -246,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -286,6 +308,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1108,16 +1133,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B15DD61-7C00-4C91-A86F-A91CC158BBFE}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="A1:D8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="9"/>
+    <col min="2" max="2" width="21.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1284,24 +1311,117 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
+    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
   <conditionalFormatting sqref="B2:F8">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1310,6 +1430,14 @@
         <color theme="4" tint="-0.499984740745262"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
         <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1340,4 +1468,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71884BFD-4028-4A9E-BB4C-DFF171F744BD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tablas_auxiliares.xlsx
+++ b/tablas_auxiliares.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sik20\OneDrive\Documentos\Github\clasificacion-sectorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sikno\Documents\github\clasificacion-sectorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127FB85F-4523-4977-9AFA-E99F2714EF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFC1528-A177-44DE-BD41-3B681951D09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D2B0DF72-1BA2-4694-8460-4239D282F198}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2B0DF72-1BA2-4694-8460-4239D282F198}"/>
   </bookViews>
   <sheets>
-    <sheet name="var.relat.esp" sheetId="2" r:id="rId1"/>
-    <sheet name="pca.corr" sheetId="3" r:id="rId2"/>
+    <sheet name="esp.rel.2021" sheetId="4" r:id="rId1"/>
+    <sheet name="var.relat.esp" sheetId="2" r:id="rId2"/>
+    <sheet name="pca.corr" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'esp.rel.2021'!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Salud y educación</t>
   </si>
@@ -143,13 +147,16 @@
   </si>
   <si>
     <t>Serv. Soc. y Admin. Pub.</t>
+  </si>
+  <si>
+    <t>Com,, Hot, y Rest,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +210,12 @@
       <name val="Noto Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -246,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -288,6 +301,13 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,6 +622,508 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAC8830-377F-4CD6-A7FF-6357A4D5BD8F}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C14:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="8" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="17">
+        <v>0.44568099999999999</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1.1302128</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0.50854350000000004</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.95196219999999998</v>
+      </c>
+      <c r="F2" s="17">
+        <v>1.4872278999999999</v>
+      </c>
+      <c r="G2" s="17">
+        <v>1.8132845</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0.79384690000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="17">
+        <v>1.1568455</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1.1115695999999999</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1.302611</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.92560430000000005</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.34812219999999999</v>
+      </c>
+      <c r="G3" s="17">
+        <v>1.2789587</v>
+      </c>
+      <c r="H3" s="17">
+        <v>1.2199617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1.1481787999999999</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1.8272813000000001</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.96010430000000002</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.83788499999999999</v>
+      </c>
+      <c r="F4" s="17">
+        <v>2.1688101</v>
+      </c>
+      <c r="G4" s="17">
+        <v>1.1579942999999999</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.997359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.91200820000000005</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.76144500000000004</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.90979739999999998</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1.0693338999999999</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.7762213</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1.0661989000000001</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.79966619999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="17">
+        <v>1.0511204999999999</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.86549279999999995</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.55112260000000002</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.70506199999999997</v>
+      </c>
+      <c r="F6" s="17">
+        <v>2.2116291000000001</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1.03823</v>
+      </c>
+      <c r="H6" s="17">
+        <v>2.0363153999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="17">
+        <v>1.3387157000000001</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1.8034072999999999</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.86379280000000003</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.74108300000000005</v>
+      </c>
+      <c r="F7" s="17">
+        <v>2.1961927000000001</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1.0289598</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1.4714387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17">
+        <v>1.2851703999999999</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2.6833798</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.92425550000000001</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.32669359999999997</v>
+      </c>
+      <c r="F8" s="17">
+        <v>4.3845983000000004</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.95149220000000001</v>
+      </c>
+      <c r="H8" s="17">
+        <v>2.6274546000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0.75162510000000005</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.85070460000000003</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1.2029755</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1.1566860000000001</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.41378799999999999</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0.94620709999999997</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.63966869999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1.0978399000000001</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2.6162128999999998</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1.4168494</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.44536870000000001</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2.6592275000000001</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.87778109999999998</v>
+      </c>
+      <c r="H10" s="17">
+        <v>2.8016117999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="17">
+        <v>1.3733242999999999</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.28639979999999998</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.87783770000000005</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.87990919999999995</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1.1754058000000001</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0.84975500000000004</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1.5650199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1.0493178999999999</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.46083859999999999</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1.0911415</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1.0151288999999999</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1.3430512999999999</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.82228579999999996</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0.99294170000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0.95096420000000004</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1.2469532999999999</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1.1473258</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.83880200000000005</v>
+      </c>
+      <c r="F13" s="17">
+        <v>2.6242291999999998</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.77495190000000003</v>
+      </c>
+      <c r="H13" s="17">
+        <v>1.3329141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0.5902212</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.92698720000000001</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.282059</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1.1827293999999999</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1.0205065</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.7644434</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0.66350779999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0.86450610000000006</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.67203020000000002</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1.2769368000000001</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1.1040865</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.76678769999999996</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.67952380000000001</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0.93433120000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0.75515489999999996</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.92053410000000002</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.58479250000000005</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1.1626816</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1.0938923</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.60705810000000004</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0.71314420000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="17">
+        <v>1.1400256</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.48360429999999999</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.78329629999999995</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1.0793386</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1.5163523999999999</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0.60685679999999997</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0.77283230000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0.68369849999999999</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.25872420000000002</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.26003130000000002</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1.2822893</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0.68156709999999998</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0.58464130000000003</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0.51035810000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{7DAC8830-377F-4CD6-A7FF-6357A4D5BD8F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H18">
+      <sortCondition descending="1" ref="G1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:H18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B19BFD-12AB-4FF2-83F3-2EB89812FC93}">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -609,19 +1131,19 @@
       <selection activeCell="A13" sqref="A13:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -647,7 +1169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,7 +1195,7 @@
         <v>-1.37651567E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -699,7 +1221,7 @@
         <v>1.31900648E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -725,7 +1247,7 @@
         <v>-8.8138115599999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -751,7 +1273,7 @@
         <v>-4.9512660000000002E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,7 +1299,7 @@
         <v>0.1380897177</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -803,7 +1325,7 @@
         <v>0.1473661014</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -829,7 +1351,7 @@
         <v>-2.4463905599999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -855,7 +1377,7 @@
         <v>3.7727859699999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -881,7 +1403,7 @@
         <v>6.0930400799999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -907,7 +1429,7 @@
         <v>5.97588233E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -933,7 +1455,7 @@
         <v>-5.26885047E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -959,7 +1481,7 @@
         <v>1.0847044000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -985,7 +1507,7 @@
         <v>0.2385833859</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1011,7 +1533,7 @@
         <v>0.1101096005</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1037,7 +1559,7 @@
         <v>-0.1278034445</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,7 +1585,7 @@
         <v>-4.3100737299999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1106,21 +1628,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B15DD61-7C00-4C91-A86F-A91CC158BBFE}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="21.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
@@ -1137,7 +1659,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -1154,7 +1676,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>30</v>
       </c>
@@ -1171,7 +1693,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>31</v>
       </c>
@@ -1188,7 +1710,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>33</v>
       </c>
@@ -1205,7 +1727,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>32</v>
       </c>
@@ -1222,7 +1744,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>34</v>
       </c>
@@ -1239,7 +1761,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>35</v>
       </c>
@@ -1256,7 +1778,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1265,7 +1787,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1274,7 +1796,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1283,7 +1805,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
